--- a/Updates/TDFFN.xlsx
+++ b/Updates/TDFFN.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sayfa1!$A$1:$N$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sayfa1!$A$1:$N$71</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="296">
   <si>
     <t>NewsId</t>
   </si>
@@ -302,9 +302,6 @@
   </si>
   <si>
     <t>FakeTruthMatchNewsId</t>
-  </si>
-  <si>
-    <t>POSITIVE</t>
   </si>
   <si>
     <t>NewsDate</t>
@@ -748,10 +745,6 @@
   </si>
   <si>
     <t>Almanya Başbakanı Angela Merkel, NATO üyesi Türkiye'ye topyekun bir silah ambargosuna karşı olduğunu söyledi. Almanya Başbakanı Angela Merkel 24 Eylül'deki genel seçimler öncesi Alman devlet televizyonu NDR'e konuştu. Almanya Başbakanı Merkel, NATO üyesi Türkiye'ye topyekun bir silah ambargosuna karşı olduğunu belirtti. Almanya'nın güvenlik konusunda Türkiye ile birlikte çalışmasının zorunlu olduğunu vurgulayan Başbakan Merkel, "DAEŞ'e ve İslamcı teröre karşı savaşta birlikte mücadele ediyoruz" açıklamasında bulundu. Merkel, Almanya'nın Türkiye'ye silah satışını vaka bazında inceleme yaparak karar vereceğini de belirtti.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.09.2017
-</t>
   </si>
   <si>
     <t>Almanya Başbakanı,
@@ -1141,13 +1134,183 @@
 Hint bilimciler, yakınlarda bir uzay cismini tespit ettiklerini, bu cismin NASA veri tabanında bulunmadığını ifade ettiler. Ölümcül virüsün gezegenimize bu cisim tarafından ulaştırıldığı kaydedildi.</t>
   </si>
   <si>
-    <t>FALSE</t>
-  </si>
-  <si>
     <t>NASA</t>
   </si>
   <si>
     <t>http://m.internethaber.com/sonunda-bu-da-oldu-insan-eti-satan-ilk-restoran-acildi-foto-galerisi-1828243.htm</t>
+  </si>
+  <si>
+    <t>İstanbul'da geçtiğimiz ay yaşanan bu olay cenaze aracını kullanan kişinin tecavüzü kameraya alması ve daha sonra sosyal medyada yayınlamasından sonra ortaya çıktı. Aleyna G. geçtiğimiz ay talihsiz bir trafik kazasına karışmış ve olay yerinde hayatını kaybetmişti. Hastahanede tedavi altında olan ailesi cenazesini defnedemediğinden cenazeyi defnetme görevini belediye ve diğer akrabaları üstlenmişti. Cenaze taşınırken yanlış yola girdiğini beyan eden şöför Harun Ç. küçük Aleyna'ya tecavüz etmiş ve tecavüz anını kameraya çekmiş. Olaydan 17 gün sonra imgsrc.ru isimli bir internet sitesine bu görüntüleri atmış ve bu görünlüleri paylaştığını arkadaşına söylemişti. Arkadaşının şikayeti üzerine polis tarafından sorguya alınan Harun Ç. tecavüzü işlediğini itiraf etmiştir. Kişinin sorgusu halen devam etmektedir.
+Mutlaka Takipte Kalın.</t>
+  </si>
+  <si>
+    <t>Trafik kazasında ölen Aleyna cenaze aracında tecavüze uğradı!</t>
+  </si>
+  <si>
+    <t>Aleyna G., Harun Ç.</t>
+  </si>
+  <si>
+    <t>Sosyal medyayı karıştıran 'cenaze aracında tecavüz' haberi yalan çıktı</t>
+  </si>
+  <si>
+    <t>Dün sosyal medyayı karıştıran bir haber ortaya atıldı. Haberde iddia edilen; Aleyna G. isimli genç kız İstanbul'da geçirdiği bir trafik kazasında hayatını kaybettiği, genç kızın naaşı taşınırken cenaze aracının şoförü Harun Ç.'nin Aleyna'ya tecavüz ettiği ve tecavüz anını videoya çektiği iddia edildiğiydi. Bu haber defalarca paylaşıldı. Fakat haberin doğru olmadığı ortaya çıktı. İlk olarak haber sitesinde yayınlanan ve ardından sosyal medyada paylaşılan bir iddiaya göre, Aleyna G. isimli genç kız İstanbul’da geçirdiği bir trafik kazasında hayatını kaybetti, genç kızın naaşı taşınırken cenaze aracının şoförü Harun Ç.’nin Aleyna’ya tecavüz ettiği ve tecavüz anını videoya çektiği iddia edildi. Haberlerde, Harun Ç.’nin arkadaşının şikayeti üzerine polis tarafından sorgulandığı da belirtildi. Bu haber bir başka sitede de 20 bine yakın görüntülendi ayrıca farklı Facebook sayfalarında ve Twitter hesaplarında binlerce kez paylaşıldı.
+Ancak haberde, haberi yapanın imzası bulunmuyordu. Teyit.org editörleri de İstanbul Emniyeti Asayiş ve Gasp Büro Amirlikleri ile görüştüler ve polis tarafından sorgulanan böyle bir kişinin olmadığını öğrendiler.
+Ayrıca teyit.org bu haberler daha önce 'Kastamonu’da kan donduran olay' isimli yalan haberi yapanın aynı kişi olduğu bilgisine ulaştı.</t>
+  </si>
+  <si>
+    <t>66, 67</t>
+  </si>
+  <si>
+    <t>www.hurriyet.com.tr/sosyal-medyayi-karistiran-cenaze-aracinda-tecavuz-haberi-yalan-cikti-40608517</t>
+  </si>
+  <si>
+    <t>Aleyna G., Harun Ç., İstanbul, teyit.org</t>
+  </si>
+  <si>
+    <t>https://teyit.org/hayatini-kaybeden-genc-kiza-cenaze-araci-soforunun-tecavuz-ettigi-iddiasi/</t>
+  </si>
+  <si>
+    <t>Hayatını kaybeden genç kıza cenaze aracı şoförünün tecavüz ettiği iddiası</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">İlk olarak </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1E73BE"/>
+        <rFont val="&amp;quot"/>
+      </rPr>
+      <t>Halk Arena</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF484848"/>
+        <rFont val="&amp;quot"/>
+      </rPr>
+      <t xml:space="preserve"> isimli haber sitesinde yayınlanan ve sosyal medyada paylaşılan bir iddiaya göre Aleyna G. isimli genç kız İstanbul’da geçirdiği bir trafik kazasında hayatını kaybetti, genç kızın naaşı taşınırken cenaze aracının şoförü Harun Ç.’nin Aleyna’ya tecavüz ettiği ve tecavüz anını videoya çektiği iddia edildi. Haberlerde, Harun Ç.’nin arkadaşının şikayeti üzerine polis tarafından sorgulandığı da belirtildi. Bu haber </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1E73BE"/>
+        <rFont val="&amp;quot"/>
+      </rPr>
+      <t>Siyaset Cafe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF484848"/>
+        <rFont val="&amp;quot"/>
+      </rPr>
+      <t xml:space="preserve"> isimli sitede 20 bine yakın görüntülendi ayrıca farklı </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1E73BE"/>
+        <rFont val="&amp;quot"/>
+      </rPr>
+      <t>Facebook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF484848"/>
+        <rFont val="&amp;quot"/>
+      </rPr>
+      <t xml:space="preserve"> sayfalarında ve </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1E73BE"/>
+        <rFont val="&amp;quot"/>
+      </rPr>
+      <t>Twitter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF484848"/>
+        <rFont val="&amp;quot"/>
+      </rPr>
+      <t xml:space="preserve"> hesaplarında binlerce kez </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1E73BE"/>
+        <rFont val="&amp;quot"/>
+      </rPr>
+      <t>paylaşıldı</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF484848"/>
+        <rFont val="&amp;quot"/>
+      </rPr>
+      <t>. Ancak bu iddia doğru değil. Bu haberin yer aldığı güvenilir bir kaynağa ulaşılamadı.
+İlk olarak halkarena.com isimli sitede yayınlanan haberin, sosyal medyada yaygınlaşmasının ardından, “halkarena.com özel haberidir. Kaynak belirtmeden izinsizce kullanılamaz. Emniyet kayıtları 2017/30159” ifadesi eklendi.
+Sitenin künyesinde daha önce yalnızca imtiyaz sahibinin ismi yazarken, iddianın ortaya atılmasından ve sosyal medyada ilgi görmesinden sonra halkarena.com isimli sitenin künyesinin değiştiği ve künyeye bazı eklemelerin yapıldığı fark edildi. 
+Bu haber sitesinin who.is kaydına bakıldığında sitenin alan adını 5 gün önce aldığı görülüyor.  Henüz 5 gün önce alan adının alındığı söz konusu sitenin böyle bir haberi 11 Ekim Dünya Kız Çocukları Günü’nde yayınlaması da kuşkuları arttırdı.</t>
+    </r>
+  </si>
+  <si>
+    <t>Halk Arena, Aleyna G., Harun Ç., Siyaset Cafe, Twitter, Facebook</t>
+  </si>
+  <si>
+    <t>Sosa özel hocasıyla geldi.</t>
+  </si>
+  <si>
+    <t>https://www.aspor.com.tr/trabzonspor/2017/11/10/sosa-ozel-hocasiyla-geldi</t>
+  </si>
+  <si>
+    <t>Trabzonspor, Arjantinli, Sosa, Antalya Belek</t>
+  </si>
+  <si>
+    <t>Trabzonspor’un Arjantinli 10 numarası Jose Sosa bir günlük ekstra izninin ardından Antalya Belek’teki kampa katıldı.
+32 yaşındaki yıldızın İtalya'dan getirdiği özel fizyoterapistinin de bu süre zarfında kendisine antrenman eksiğini kapatması için yardımcı olacağı belirtilirken, bu durum teknik direktör Rıza Çalımbay'ın da hoşuna gitti. İdmana da hızlı bir başlangıç yapan Sosa'nın Osmanlıspor maçına kadar form tutarak eski günlerine dönüş anlamında olumlu sinyaller vermesi ve beklentileri karşılaması bekleniyor.</t>
+  </si>
+  <si>
+    <t>Arda Turan A Milli Takım'ı bıraktı</t>
+  </si>
+  <si>
+    <t>Makedonya maçı sonrasında Milli Takım uçağında küfürler ederek gazeteci Bilal Meşe'ye saldıran ve Fatih Terim ile görüşerek gönderilen kaptan Arda Turan Milli Takım kariyerini sonlandırdığını açıkladı. Turan, saldırı için pişman olmadığını söyledi. A Milli Takım'ın kamp yaptığı Slovenya'nın Portoroz kentindeki otelde basın toplantısı düzenleyen Arda Turan, şunları söyledi:
+"Yapılanları unutmadım. 2006'da ıslıklandığımı hiç unutmadım. Hayatta bir şey yapıyorsanız, bunun bedelini mutlaka ödersiniz. Ben Milli Takım tişörtü üstümdeyken bir hata yaptım. Hocamız ve Federasyon Başkanımızla konuştuk ve Kosova maçında olmama kararı aldık. Hayatım boyunca hiç iyi bir futbolcu olmak için uğraşmadım. İyi, onurlu bir adam olmak için uğraştım. Başkalarının imzalarıyla o sayfaları doldurduklarını biliyorum. O yapanların hangisini görürsem aynı tepkiyi verirmiyim bilmiyorum ama aynı sinirimi göstereceğim. Bugün burada Türk Milli Takımı'nın her kademesinde hizmet etmiş, ülkesini severek, sadece formaya aşık biri olarak, parayı ve başka bir hiçbir şeyi düşünmeyerek, gerektiğinde steroid, kortizon, her türlü ilacı kullanarak sahaya çıkmış bir oyuncu olarak konuşuyorum. Ülkemi, bayrağımı, ülkemin insanlarını çok seviyorum. Bu sıkıntılar her olduğunda 'İstiyorsanız kenara çekileyim' dedim. Çünkü zarar verdiğimi düşünüyordum. Artık zamanının geldiğini düşünüyorum. Bugüne kadar çalıştığım herkese, arkadaşlarıma ve içeride konuştuğum birçok insana, aileme çok teşekkür ederim. Hayatım boyunca ne yaptıysam bedelini ödemeye hazırım. Yine ödeyeceğim. Gereğini yapıyorum ve milli takım kariyerimi şerefim ve onurumla sonlandırıyorum. İnşallah insanlara iyi futbolculuğumu değil, adamlığımı bırakırım. Ne yaptıklarını, ne ettiklerini çok iyi biliyorum. Her zaman tepkim aynı olacak."</t>
+  </si>
+  <si>
+    <t>www.hurriyet.com.tr/sporarena/arda-turan-konusuyor-40481830</t>
+  </si>
+  <si>
+    <t>Arda Turan, Bilal Meşe, Türk Milli Takımı</t>
+  </si>
+  <si>
+    <t>http://www.zaytung.com/haberdetay.asp?newsid=323606</t>
+  </si>
+  <si>
+    <t>TFF Güven Verdi: ‘‘Diğer oyuncularımız Arda'nın yokluğunu hissettirmemek için canla başla tüm egolarını ortaya koyacaklardır…’'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gazeteci Bilal Meşe’ye saldırmasının ardından bugün Milli Takım’ı bıraktığını ilan eden Arda Turan konusunda Türkiye Futbol Federasyonu’ndan ilk resmi açıklama geldi. Açıklamada, Arda’nın yokluğunda Milli Takım’ın yoluna aynı şekilde devam edebilecek egoya ve saldırganlığa sahip olduğuna vurgu yapıldı.
+Endişeye gerek yok
+Son iki gündür Türkiye’nin gündemine oturan Arda Turan konusunda TFF sessizliğini bozdu. Türkiye Futbol Federasyonu Milli Takımlar Koordinatörü Tamer Özoğul düzenlediği basın toplantısında “Endişeye gerek yok, her şey konrtol altında” mesajı verdi. Özoğul, “Şimdi tabi Arda Turan kadar büyük bir ego kolay bulunmuyor öncelikle onu kabul etmemiz lazım. Ta buralardan çıkıp Barcelona’ya kadar binlerce insana ‘İllahlah’ dedirtmiş bir isimden söz ediyoruz. Ancak futbol bir takım oyunu, ben inanıyorum ki diğer futbolcularımız asla onun eksikliğini hissettirmeyecektir” ifadelerini kullandı.
+“Malzemecisinden hocasına”
+Milli Takımlar Koordinatörü açıklamalarına şöyle devam etti:
+“Bu işlerde tabi milli takımların yakaladıkları kuşaklar da çok önemli arkadaşlar. Bazen bir jenerasyon yakalarsınız, içinde Emre Belözoğlu olur, Arda Turan olur. Birden bire takımın ortalaması yükselir ego konusunda. Ha kimi zaman da Ergün Penbe’dir, efendime söyliyim Rıza Çalımbay’dır gibi isimlere denk gelirsiniz o dönemler de biraz daha kekremsi geçer. Şu an öyle bir durumda değiliz çok şükür. Ben bugün malzemecisinden hocasına, Burak Yılmaz'ından Ozan Tufan'ına Milli Takımımızın Arda’yı hiçbir şekilde arattırmayacakları konusunda size bizzat ben teminat veriyorum.”
+Altyapıya da önem verilecek
+Mevcut kadroyla ilgili hiçbir ego sıkıntısı bulunmadığının altını konuşması boyunca sık sık çizen Tamer Özoğul, Federasyon olarak kendilerinin yine de tedbiri elden bırakmayacaklarını da özellikle ifade etti. Tüm Türkiye’de büyük bir titizlikle altyapıya oyuncu seçme çalışmalarının sürdüğünü aktaran Milli Takımlar koordinatörü “Siz de elinizi taşın altına sokun arkadaşlar. Mahalle maçında olur, halısahada olur böyle agrefis tavırlı, böyle ‘Adamsın karşim’ gibi cümleleri sık kullanan, durduk yere herkese dayılanan genç yetenekler görürseniz lütfen federasyona bildirin. Kendilerine şans verelim” sözleriyle de tüm vatandaşlara çağrıda bulundu.
+</t>
+  </si>
+  <si>
+    <t>Bilal Meşe, TFF, Arda Turan, Milli Takım</t>
+  </si>
+  <si>
+    <t>Hasta</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1444,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1312,9 +1475,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1331,9 +1491,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1651,16 +1808,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25BC7A0-C0E1-4F91-A422-7C939572D562}">
-  <dimension ref="A1:O74"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" style="4" customWidth="1"/>
@@ -1678,14 +1835,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
@@ -1725,7 +1882,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C2" s="6">
         <v>43073</v>
@@ -1737,7 +1894,7 @@
         <v>40</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>11</v>
@@ -1749,7 +1906,7 @@
         <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>14</v>
@@ -1765,9 +1922,9 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C3" s="12">
+        <v>256</v>
+      </c>
+      <c r="C3" s="6">
         <v>42780</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -1777,7 +1934,7 @@
         <v>40</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>17</v>
@@ -1805,19 +1962,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="12">
+        <v>85</v>
+      </c>
+      <c r="C4" s="6">
         <v>43073</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>17</v>
@@ -1845,9 +2002,9 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C5" s="12">
+        <v>184</v>
+      </c>
+      <c r="C5" s="6">
         <v>42780</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -1857,7 +2014,7 @@
         <v>43</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>11</v>
@@ -1885,9 +2042,9 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C6" s="12">
+        <v>256</v>
+      </c>
+      <c r="C6" s="6">
         <v>42861</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -1897,7 +2054,7 @@
         <v>40</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>11</v>
@@ -1908,7 +2065,7 @@
       <c r="I6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="12" t="s">
         <v>27</v>
       </c>
       <c r="K6" s="10" t="s">
@@ -1925,19 +2082,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="12">
+        <v>85</v>
+      </c>
+      <c r="C7" s="6">
         <v>42861</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>17</v>
@@ -1965,19 +2122,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C8" s="12">
+        <v>256</v>
+      </c>
+      <c r="C8" s="6">
         <v>43015</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>17</v>
@@ -2005,17 +2162,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>11</v>
@@ -2043,19 +2200,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="12">
+        <v>85</v>
+      </c>
+      <c r="C10" s="6">
         <v>43047</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>11</v>
@@ -2083,19 +2240,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="12">
+        <v>85</v>
+      </c>
+      <c r="C11" s="6">
         <v>43059</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>17</v>
@@ -2123,19 +2280,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="12">
+        <v>85</v>
+      </c>
+      <c r="C12" s="6">
         <v>43059</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>11</v>
@@ -2163,17 +2320,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C13" s="12"/>
+        <v>184</v>
+      </c>
+      <c r="C13" s="6"/>
       <c r="D13" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>11</v>
@@ -2201,19 +2358,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="12">
+        <v>85</v>
+      </c>
+      <c r="C14" s="6">
         <v>42996</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>17</v>
@@ -2241,19 +2398,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="12">
+        <v>85</v>
+      </c>
+      <c r="C15" s="6">
         <v>43058</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>17</v>
@@ -2281,19 +2438,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C16" s="12">
+        <v>256</v>
+      </c>
+      <c r="C16" s="6">
         <v>43055</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>11</v>
@@ -2321,17 +2478,17 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C17" s="12"/>
+        <v>184</v>
+      </c>
+      <c r="C17" s="6"/>
       <c r="D17" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>11</v>
@@ -2359,19 +2516,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C18" s="12">
+        <v>256</v>
+      </c>
+      <c r="C18" s="6">
         <v>42916</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>17</v>
@@ -2399,19 +2556,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="12">
+        <v>85</v>
+      </c>
+      <c r="C19" s="6">
         <v>42935</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>17</v>
@@ -2423,13 +2580,13 @@
         <v>71</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="L19" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
@@ -2439,19 +2596,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="12">
+        <v>85</v>
+      </c>
+      <c r="C20" s="6">
         <v>43067</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>17</v>
@@ -2460,16 +2617,16 @@
         <v>20</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K20" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
@@ -2479,19 +2636,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="12">
+        <v>85</v>
+      </c>
+      <c r="C21" s="6">
         <v>43066</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>11</v>
@@ -2500,16 +2657,16 @@
         <v>19</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
@@ -2519,19 +2676,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C22" s="12">
+        <v>184</v>
+      </c>
+      <c r="C22" s="6">
         <v>43025</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>11</v>
@@ -2543,13 +2700,13 @@
         <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K22" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
@@ -2559,19 +2716,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="12">
+        <v>85</v>
+      </c>
+      <c r="C23" s="6">
         <v>42879</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>17</v>
@@ -2583,13 +2740,13 @@
         <v>13</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K23" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L23" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
@@ -2599,17 +2756,17 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C24" s="12"/>
+        <v>184</v>
+      </c>
+      <c r="C24" s="6"/>
       <c r="D24" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>11</v>
@@ -2624,10 +2781,10 @@
         <v>62</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
@@ -2637,17 +2794,17 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C25" s="12"/>
+        <v>184</v>
+      </c>
+      <c r="C25" s="6"/>
       <c r="D25" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>11</v>
@@ -2662,10 +2819,10 @@
         <v>62</v>
       </c>
       <c r="K25" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="L25" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
@@ -2675,19 +2832,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="12">
+        <v>85</v>
+      </c>
+      <c r="C26" s="6">
         <v>43046</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>17</v>
@@ -2699,13 +2856,13 @@
         <v>13</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
@@ -2715,19 +2872,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="12">
+        <v>85</v>
+      </c>
+      <c r="C27" s="6">
         <v>42754</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>17</v>
@@ -2739,13 +2896,13 @@
         <v>13</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K27" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L27" s="16" t="s">
         <v>121</v>
-      </c>
-      <c r="L27" s="17" t="s">
-        <v>122</v>
       </c>
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
@@ -2755,17 +2912,17 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C28" s="12"/>
+        <v>184</v>
+      </c>
+      <c r="C28" s="6"/>
       <c r="D28" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>11</v>
@@ -2780,10 +2937,10 @@
         <v>62</v>
       </c>
       <c r="K28" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="L28" s="16" t="s">
         <v>126</v>
-      </c>
-      <c r="L28" s="17" t="s">
-        <v>127</v>
       </c>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
@@ -2793,16 +2950,17 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>185</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C29" s="6"/>
       <c r="D29" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>11</v>
@@ -2814,13 +2972,13 @@
         <v>72</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K29" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="L29" s="16" t="s">
         <v>128</v>
-      </c>
-      <c r="L29" s="17" t="s">
-        <v>129</v>
       </c>
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
@@ -2830,19 +2988,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C30" s="12">
+        <v>256</v>
+      </c>
+      <c r="C30" s="6">
         <v>42949</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>17</v>
@@ -2854,13 +3012,13 @@
         <v>72</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="L30" s="17" t="s">
         <v>131</v>
+      </c>
+      <c r="L30" s="16" t="s">
+        <v>130</v>
       </c>
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
@@ -2870,17 +3028,17 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C31" s="12"/>
+        <v>184</v>
+      </c>
+      <c r="C31" s="6"/>
       <c r="D31" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>11</v>
@@ -2892,13 +3050,13 @@
         <v>70</v>
       </c>
       <c r="J31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="L31" s="16" t="s">
         <v>135</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="L31" s="17" t="s">
-        <v>136</v>
       </c>
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
@@ -2908,19 +3066,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C32" s="12">
+        <v>256</v>
+      </c>
+      <c r="C32" s="6">
         <v>43074</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>17</v>
@@ -2932,13 +3090,13 @@
         <v>70</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K32" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="L32" s="16" t="s">
         <v>139</v>
-      </c>
-      <c r="L32" s="17" t="s">
-        <v>140</v>
       </c>
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
@@ -2948,19 +3106,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="12">
+        <v>85</v>
+      </c>
+      <c r="C33" s="6">
         <v>42998</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>17</v>
@@ -2969,16 +3127,16 @@
         <v>33</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="L33" s="17" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>145</v>
       </c>
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
@@ -2988,19 +3146,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C34" s="12">
+        <v>184</v>
+      </c>
+      <c r="C34" s="6">
         <v>42986</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>11</v>
@@ -3009,16 +3167,16 @@
         <v>32</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K34" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="K34" s="10" t="s">
+      <c r="L34" s="16" t="s">
         <v>149</v>
-      </c>
-      <c r="L34" s="17" t="s">
-        <v>150</v>
       </c>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
@@ -3028,19 +3186,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="12">
+        <v>85</v>
+      </c>
+      <c r="C35" s="6">
         <v>43074</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>17</v>
@@ -3049,16 +3207,16 @@
         <v>0</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J35" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="L35" s="16" t="s">
         <v>152</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="L35" s="17" t="s">
-        <v>153</v>
       </c>
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
@@ -3068,19 +3226,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" s="12">
+        <v>85</v>
+      </c>
+      <c r="C36" s="6">
         <v>43073</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>17</v>
@@ -3089,16 +3247,16 @@
         <v>0</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J36" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="L36" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="K36" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="L36" s="17" t="s">
-        <v>156</v>
       </c>
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
@@ -3108,19 +3266,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="12">
+        <v>85</v>
+      </c>
+      <c r="C37" s="6">
         <v>42892</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G37" s="10" t="s">
         <v>17</v>
@@ -3129,16 +3287,16 @@
         <v>37</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J37" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K37" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="K37" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="L37" s="17" t="s">
-        <v>159</v>
+      <c r="L37" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
@@ -3148,17 +3306,17 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C38" s="12"/>
+        <v>184</v>
+      </c>
+      <c r="C38" s="6"/>
       <c r="D38" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>11</v>
@@ -3167,16 +3325,16 @@
         <v>36</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J38" s="8" t="s">
         <v>62</v>
       </c>
       <c r="K38" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="L38" s="16" t="s">
         <v>163</v>
-      </c>
-      <c r="L38" s="17" t="s">
-        <v>164</v>
       </c>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
@@ -3186,19 +3344,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="12">
+        <v>85</v>
+      </c>
+      <c r="C39" s="6">
         <v>43060</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>17</v>
@@ -3210,13 +3368,13 @@
         <v>71</v>
       </c>
       <c r="J39" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="L39" s="16" t="s">
         <v>167</v>
-      </c>
-      <c r="K39" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="L39" s="17" t="s">
-        <v>168</v>
       </c>
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
@@ -3226,19 +3384,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C40" s="12">
+        <v>184</v>
+      </c>
+      <c r="C40" s="6">
         <v>43067</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>11</v>
@@ -3253,10 +3411,10 @@
         <v>62</v>
       </c>
       <c r="K40" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="L40" s="16" t="s">
         <v>170</v>
-      </c>
-      <c r="L40" s="17" t="s">
-        <v>171</v>
       </c>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
@@ -3266,19 +3424,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C41" s="12">
+        <v>256</v>
+      </c>
+      <c r="C41" s="6">
         <v>43074</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>17</v>
@@ -3287,16 +3445,16 @@
         <v>41</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J41" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="L41" s="16" t="s">
         <v>174</v>
-      </c>
-      <c r="K41" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="L41" s="17" t="s">
-        <v>175</v>
       </c>
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
@@ -3306,17 +3464,17 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C42" s="12"/>
+        <v>184</v>
+      </c>
+      <c r="C42" s="6"/>
       <c r="D42" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>11</v>
@@ -3325,16 +3483,16 @@
         <v>40</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J42" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="L42" s="17" t="s">
         <v>178</v>
-      </c>
-      <c r="K42" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="L42" s="18" t="s">
-        <v>179</v>
       </c>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
@@ -3344,17 +3502,17 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C43" s="12"/>
+        <v>184</v>
+      </c>
+      <c r="C43" s="6"/>
       <c r="D43" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>11</v>
@@ -3366,13 +3524,13 @@
         <v>72</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K43" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="L43" s="17" t="s">
         <v>180</v>
-      </c>
-      <c r="L43" s="18" t="s">
-        <v>181</v>
       </c>
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
@@ -3382,17 +3540,17 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C44" s="12"/>
+        <v>184</v>
+      </c>
+      <c r="C44" s="6"/>
       <c r="D44" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>11</v>
@@ -3401,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K44" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="L44" s="17" t="s">
         <v>187</v>
-      </c>
-      <c r="L44" s="18" t="s">
-        <v>188</v>
       </c>
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
@@ -3420,17 +3578,17 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C45" s="12"/>
+        <v>184</v>
+      </c>
+      <c r="C45" s="6"/>
       <c r="D45" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>11</v>
@@ -3442,13 +3600,13 @@
         <v>70</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K45" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="L45" s="17" t="s">
         <v>190</v>
-      </c>
-      <c r="L45" s="18" t="s">
-        <v>191</v>
       </c>
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
@@ -3458,19 +3616,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>196</v>
+        <v>256</v>
+      </c>
+      <c r="C46" s="6">
+        <v>42990</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>17</v>
@@ -3482,13 +3640,13 @@
         <v>70</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K46" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="L46" s="17" t="s">
         <v>194</v>
-      </c>
-      <c r="L46" s="18" t="s">
-        <v>195</v>
       </c>
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
@@ -3498,19 +3656,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" s="19">
+        <v>85</v>
+      </c>
+      <c r="C47" s="6">
         <v>43040</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>17</v>
@@ -3522,13 +3680,13 @@
         <v>13</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="L47" s="18" t="s">
-        <v>200</v>
+        <v>197</v>
+      </c>
+      <c r="L47" s="17" t="s">
+        <v>198</v>
       </c>
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
@@ -3538,17 +3696,17 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C48" s="19"/>
+        <v>184</v>
+      </c>
+      <c r="C48" s="6"/>
       <c r="D48" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>11</v>
@@ -3563,10 +3721,10 @@
         <v>62</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="L48" s="18" t="s">
-        <v>204</v>
+        <v>201</v>
+      </c>
+      <c r="L48" s="17" t="s">
+        <v>202</v>
       </c>
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
@@ -3576,19 +3734,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C49" s="19">
+        <v>184</v>
+      </c>
+      <c r="C49" s="6">
         <v>43076</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>11</v>
@@ -3597,16 +3755,16 @@
         <v>0</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J49" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="L49" s="17" t="s">
         <v>207</v>
-      </c>
-      <c r="K49" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="L49" s="18" t="s">
-        <v>209</v>
       </c>
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
@@ -3616,19 +3774,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C50" s="19">
+        <v>256</v>
+      </c>
+      <c r="C50" s="6">
         <v>43003</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>17</v>
@@ -3640,13 +3798,13 @@
         <v>70</v>
       </c>
       <c r="J50" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="L50" s="17" t="s">
         <v>211</v>
-      </c>
-      <c r="K50" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="L50" s="18" t="s">
-        <v>213</v>
       </c>
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
@@ -3656,17 +3814,17 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C51" s="19"/>
+        <v>184</v>
+      </c>
+      <c r="C51" s="6"/>
       <c r="D51" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G51" s="10" t="s">
         <v>11</v>
@@ -3678,13 +3836,13 @@
         <v>70</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="L51" s="18" t="s">
-        <v>216</v>
+        <v>219</v>
+      </c>
+      <c r="L51" s="17" t="s">
+        <v>214</v>
       </c>
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
@@ -3694,19 +3852,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" s="19">
+        <v>85</v>
+      </c>
+      <c r="C52" s="6">
         <v>43028</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G52" s="10" t="s">
         <v>17</v>
@@ -3718,13 +3876,13 @@
         <v>70</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="L52" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
+      </c>
+      <c r="L52" s="17" t="s">
+        <v>216</v>
       </c>
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
@@ -3734,17 +3892,17 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C53" s="19"/>
+        <v>184</v>
+      </c>
+      <c r="C53" s="6"/>
       <c r="D53" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G53" s="10" t="s">
         <v>11</v>
@@ -3759,10 +3917,10 @@
         <v>62</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="L53" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
+      </c>
+      <c r="L53" s="17" t="s">
+        <v>220</v>
       </c>
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
@@ -3772,17 +3930,17 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C54" s="19"/>
+        <v>184</v>
+      </c>
+      <c r="C54" s="6"/>
       <c r="D54" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G54" s="10" t="s">
         <v>11</v>
@@ -3791,16 +3949,16 @@
         <v>54</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J54" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="L54" s="17" t="s">
         <v>224</v>
-      </c>
-      <c r="K54" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="L54" s="18" t="s">
-        <v>226</v>
       </c>
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
@@ -3810,19 +3968,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C55" s="19">
+        <v>256</v>
+      </c>
+      <c r="C55" s="6">
         <v>43059</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G55" s="10" t="s">
         <v>17</v>
@@ -3831,16 +3989,16 @@
         <v>53</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J55" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="L55" s="17" t="s">
         <v>228</v>
-      </c>
-      <c r="K55" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="L55" s="18" t="s">
-        <v>230</v>
       </c>
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
@@ -3850,19 +4008,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="19">
+        <v>85</v>
+      </c>
+      <c r="C56" s="6">
         <v>43077</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G56" s="10" t="s">
         <v>17</v>
@@ -3871,16 +4029,16 @@
         <v>56</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="L56" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="L56" s="17" t="s">
+        <v>231</v>
       </c>
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
@@ -3890,17 +4048,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="C57" s="19">
+        <v>256</v>
+      </c>
+      <c r="C57" s="6">
         <v>43052</v>
       </c>
-      <c r="D57" s="7"/>
+      <c r="D57" s="7" t="s">
+        <v>295</v>
+      </c>
       <c r="E57" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>11</v>
@@ -3909,16 +4069,16 @@
         <v>55</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="L57" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
+      </c>
+      <c r="L57" s="17" t="s">
+        <v>235</v>
       </c>
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
@@ -3928,37 +4088,37 @@
         <v>57</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" s="19">
+        <v>85</v>
+      </c>
+      <c r="C58" s="6">
         <v>43083</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="L58" s="18" t="s">
-        <v>240</v>
+        <v>237</v>
+      </c>
+      <c r="L58" s="17" t="s">
+        <v>238</v>
       </c>
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
@@ -3968,17 +4128,17 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C59" s="19"/>
+        <v>184</v>
+      </c>
+      <c r="C59" s="6"/>
       <c r="D59" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G59" s="8" t="s">
         <v>11</v>
@@ -3987,16 +4147,16 @@
         <v>57</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M59" s="10"/>
       <c r="N59" s="10"/>
@@ -4006,19 +4166,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="C60" s="19">
+        <v>256</v>
+      </c>
+      <c r="C60" s="6">
         <v>41349</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>11</v>
@@ -4027,16 +4187,16 @@
         <v>57</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K60" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="L60" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
@@ -4046,17 +4206,17 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C61" s="19"/>
+        <v>184</v>
+      </c>
+      <c r="C61" s="6"/>
       <c r="D61" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>11</v>
@@ -4065,16 +4225,16 @@
         <v>61</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M61" s="10"/>
       <c r="N61" s="10"/>
@@ -4084,19 +4244,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="C62" s="19">
+        <v>256</v>
+      </c>
+      <c r="C62" s="6">
         <v>42998</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>17</v>
@@ -4105,16 +4265,16 @@
         <v>60</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M62" s="10"/>
       <c r="N62" s="10"/>
@@ -4124,19 +4284,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="C63" s="19">
+        <v>256</v>
+      </c>
+      <c r="C63" s="6">
         <v>43082</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G63" s="8" t="s">
         <v>17</v>
@@ -4145,16 +4305,16 @@
         <v>60</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M63" s="10"/>
       <c r="N63" s="10"/>
@@ -4164,19 +4324,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" s="19">
+        <v>85</v>
+      </c>
+      <c r="C64" s="6">
         <v>43081</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G64" s="8" t="s">
         <v>17</v>
@@ -4185,16 +4345,16 @@
         <v>64</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K64" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="L64" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="L64" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="M64" s="10"/>
       <c r="N64" s="10"/>
@@ -4204,186 +4364,281 @@
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="C65" s="19">
+        <v>256</v>
+      </c>
+      <c r="C65" s="6">
         <v>43081</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="H65" s="8">
         <v>63</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J65" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="L65" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="L65" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="M65" s="10"/>
       <c r="N65" s="10"/>
     </row>
-    <row r="66" spans="1:14" ht="15">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
+    <row r="66" spans="1:14" ht="178.5">
+      <c r="A66" s="8">
+        <v>65</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C66" s="6">
+        <v>43019</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J66" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>271</v>
+      </c>
       <c r="M66" s="10"/>
       <c r="N66" s="10"/>
     </row>
-    <row r="67" spans="1:14" ht="15">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
+    <row r="67" spans="1:14" ht="255">
+      <c r="A67" s="8">
+        <v>66</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C67" s="6">
+        <v>43020</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" s="8">
+        <v>65</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>275</v>
+      </c>
       <c r="M67" s="10"/>
       <c r="N67" s="10"/>
     </row>
-    <row r="68" spans="1:14" ht="15">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
+    <row r="68" spans="1:14" ht="293.25">
+      <c r="A68" s="8">
+        <v>67</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="6">
+        <v>43020</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" s="8">
+        <v>65</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>281</v>
+      </c>
       <c r="M68" s="10"/>
       <c r="N68" s="10"/>
     </row>
-    <row r="69" spans="1:14" ht="15">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
+    <row r="69" spans="1:14" ht="114.75">
+      <c r="A69" s="8">
+        <v>68</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C69" s="6">
+        <v>43049</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H69" s="8">
+        <v>0</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>286</v>
+      </c>
       <c r="M69" s="10"/>
       <c r="N69" s="10"/>
     </row>
-    <row r="70" spans="1:14" ht="15">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
+    <row r="70" spans="1:14" ht="357">
+      <c r="A70" s="8">
+        <v>69</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C70" s="6">
+        <v>42892</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" s="8">
+        <v>70</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>288</v>
+      </c>
       <c r="M70" s="10"/>
       <c r="N70" s="10"/>
     </row>
-    <row r="71" spans="1:14" ht="15">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
+    <row r="71" spans="1:14" ht="409.5">
+      <c r="A71" s="8">
+        <v>70</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" s="8">
+        <v>69</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>293</v>
+      </c>
       <c r="M71" s="10"/>
       <c r="N71" s="10"/>
     </row>
-    <row r="72" spans="1:14" ht="15">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
-    </row>
-    <row r="73" spans="1:14" ht="15">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="10"/>
-    </row>
-    <row r="74" spans="1:14" ht="15">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="10"/>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:N71" xr:uid="{6859A02F-78DE-473E-A366-B39E43BF0A40}"/>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{35B0588D-8B49-483E-97C1-084A5F9CDB33}"/>
     <hyperlink ref="J3" r:id="rId2" xr:uid="{8FA1BDEE-1B51-4E4F-B2AF-02A2E1BC34C4}"/>
@@ -4424,8 +4679,12 @@
     <hyperlink ref="J19" r:id="rId37" xr:uid="{26F5ACCD-A0B8-468F-AA2F-FCABD58F1920}"/>
     <hyperlink ref="J29" r:id="rId38" xr:uid="{FFD4703C-7550-4EC9-A110-901EAFA39A99}"/>
     <hyperlink ref="J35" r:id="rId39" xr:uid="{EFF748FF-8998-4C2D-8A5E-46768D9B9773}"/>
+    <hyperlink ref="K69" r:id="rId40" display="https://www.aspor.com.tr/trabzonspor/2017/11/10/sosa-ozel-hocasiyla-geldi" xr:uid="{28849969-434B-421B-BD66-B19E96FF89E7}"/>
+    <hyperlink ref="J69" r:id="rId41" xr:uid="{04123D33-0506-43B3-8869-537516E8F299}"/>
+    <hyperlink ref="J68" r:id="rId42" xr:uid="{DCF78C4B-4A59-4485-A141-E9DFC30B4804}"/>
+    <hyperlink ref="J70" r:id="rId43" xr:uid="{8165831E-0439-4A07-B38E-DFA81D068FBA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId44"/>
 </worksheet>
 </file>